--- a/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7062,7 +7063,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -7094,7 +7094,6 @@
           <t>泰达宏利改革动力量化策略灵活配置混合C</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>90.37</t>
@@ -7110,6 +7109,2378 @@
       </c>
       <c r="H65" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>224.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.5856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4445</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.2655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6922</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.4481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.2479</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3301</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9906</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6811</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>46.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3487</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1337</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0888</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0669</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0252</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9729</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6200</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5547</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008077</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008137</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰天奕量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9486,4 +9487,1540 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5482</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9974</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7611</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6405</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6239</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>50.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11023,4 +11024,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66.54000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>105.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11032,7 +11033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11043,17 +11044,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11063,14 +11084,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.8</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11079,14 +11122,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.69</v>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -11095,14 +11160,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66.54000000000001</v>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.9086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -11111,13 +11198,1897 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8828</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0418</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0873</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4053</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0453</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4885</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000688</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城研究精选股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66.54000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>109</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>105.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12987,7 +12988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12998,17 +12999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13018,14 +13039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.26</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -13034,14 +13077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.8</v>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -13050,14 +13115,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.69</v>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -13066,14 +13153,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>66.54000000000001</v>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -13082,13 +13191,1419 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1176</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9662</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66.54000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>109</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>105.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14486,7 +14487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14497,17 +14498,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14517,14 +14538,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.25</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6219</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -14533,14 +14576,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.26</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14549,14 +14614,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.8</v>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14565,14 +14652,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D5" t="n">
-        <v>74.69</v>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -14581,14 +14690,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>64</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.54000000000001</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -14597,13 +14728,2879 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9711</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8825</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7475</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3987</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2099</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0492</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0311</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9340</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8194</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8105</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6870</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5754</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5723</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5575</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5548</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3773</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>77</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>74.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>64</v>
+      </c>
+      <c r="D7" t="n">
+        <v>66.54000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>109</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>105.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002050-三花智控.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="D2" t="n">
-        <v>42.1</v>
+        <v>69.03</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>12.25</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>43.26</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>36.8</v>
+        <v>43.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>74.69</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>66.54000000000001</v>
+        <v>74.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>66.54000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>109</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>105.98</v>
       </c>
     </row>
@@ -600,6 +617,6250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7307</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8894</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新未来混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8675</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8660</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8459</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7398</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6855</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5999</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3541</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2801</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2801</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1960</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1922</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0885</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9266</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8262</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7886</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7770</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7597</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7443</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7204</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6928</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159755</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6670</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6379</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5594</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5426</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5133</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4880</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4677</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3988</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3851</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3686</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014243</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159796</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159840</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>561160</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159757</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014317</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011980</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>561910</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159767</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>兴银国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009531</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>九泰锐和18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011448</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014395</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中银证券成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014318</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发价值领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011981</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011449</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中银证券均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159775</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>建信国证新能源车电池ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>015998</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>016556</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014997</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>014396</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中银证券成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>015997</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>大成中证电池主题指数A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3579,7 +9840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5077,7 +11338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7031,7 +13292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8567,7 +14828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10939,7 +17200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13413,7 +19674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
